--- a/t1_confection/A1_Outputs/A1_Outputs_BAU/A-O_Demand.xlsx
+++ b/t1_confection/A1_Outputs/A1_Outputs_BAU/A-O_Demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/IDB_RELAC_Tx/Documentos compartidos/03_Model/A1_Outputs/A1_Outputs_20250728_ADJ/A1_Outputs_BAU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F3426075DD8CBD4CB39FD2F8E612922CDA391659" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75F81AF-3812-4FD5-9D1D-EFD3615D9F17}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_F3426075DD8CBD4CB39FD2F8E612922CDA391659" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCC08A6-6D37-460A-92D7-CE8767031FCD}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1572" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand_Projection" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,18 +704,18 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K21" sqref="K21:O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -947,7 +947,7 @@
         <v>943.56</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>200.43060625493291</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>726.09766241526131</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>617.13769670102101</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>96.934369970434446</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>166.4345589585177</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>339.59536056877721</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>99.424562698193242</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>81.216488521767346</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8.6374994406213954</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>2466.6698438476237</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>33.023310888369593</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>142.23875251756721</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>562.67387606513137</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>704.91262858269852</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>56.276630784014984</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>105.1171833773456</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>16.879739224058248</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3079,12 +3079,12 @@
       <selection activeCell="A230" sqref="A230:XFD230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
         <v>85</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
         <v>85</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
         <v>86</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
         <v>86</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
         <v>86</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
         <v>86</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
         <v>86</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
         <v>86</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
         <v>86</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
         <v>87</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
         <v>87</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
         <v>87</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
         <v>87</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
         <v>87</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
         <v>87</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
         <v>87</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
         <v>87</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
         <v>87</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
         <v>87</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
         <v>87</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
         <v>87</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
         <v>87</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
         <v>88</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
         <v>88</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
         <v>88</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
         <v>88</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
         <v>88</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
         <v>88</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -22957,7 +22957,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -26170,7 +26170,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -26289,7 +26289,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -26408,7 +26408,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -26527,7 +26527,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -26646,7 +26646,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39">
       <c r="A200" t="s">
         <v>91</v>
       </c>
@@ -26884,7 +26884,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39">
       <c r="A202" t="s">
         <v>91</v>
       </c>
@@ -27122,7 +27122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39">
       <c r="A204" t="s">
         <v>91</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39">
       <c r="A205" t="s">
         <v>91</v>
       </c>
@@ -27479,7 +27479,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39">
       <c r="A206" t="s">
         <v>91</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39">
       <c r="A207" t="s">
         <v>91</v>
       </c>
@@ -27717,7 +27717,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39">
       <c r="A208" t="s">
         <v>91</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:39">
       <c r="A209" t="s">
         <v>91</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:39">
       <c r="A210" t="s">
         <v>91</v>
       </c>
@@ -28074,7 +28074,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:39">
       <c r="A211" t="s">
         <v>91</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:39">
       <c r="A212" t="s">
         <v>91</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:39">
       <c r="A213" t="s">
         <v>91</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:39">
       <c r="A214" t="s">
         <v>91</v>
       </c>
@@ -28550,7 +28550,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:39">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:39">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -28788,7 +28788,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:39">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -28907,7 +28907,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:39">
       <c r="A218" t="s">
         <v>80</v>
       </c>
@@ -29026,7 +29026,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:39">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:39">
       <c r="A220" t="s">
         <v>82</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:39">
       <c r="A221" t="s">
         <v>83</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>7.571428571428572E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:39">
       <c r="A222" t="s">
         <v>84</v>
       </c>
@@ -29502,7 +29502,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:39">
       <c r="A223" t="s">
         <v>85</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>0.10571428571428571</v>
       </c>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:39">
       <c r="A224" t="s">
         <v>86</v>
       </c>
@@ -29740,7 +29740,7 @@
         <v>7.8571428571428584E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:39">
       <c r="A225" t="s">
         <v>87</v>
       </c>
@@ -29859,7 +29859,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:39">
       <c r="A226" t="s">
         <v>88</v>
       </c>
@@ -29978,7 +29978,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:39">
       <c r="A227" t="s">
         <v>89</v>
       </c>
@@ -30097,7 +30097,7 @@
         <v>8.2857142857142851E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:39">
       <c r="A228" t="s">
         <v>90</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:39">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -30341,8 +30341,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a214a3ba0c52ae00a3b9ea52e20da1dd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1812e4edb338c892157ee4b16223776a" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7db9c71a-8f0f-4486-8c92-6242e053eab7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c42e2caa13ae5d6057eea9be68815fce">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b95e89a8284191eba76f4506755f34ad" ns2:_="" ns3:_="">
     <xsd:import namespace="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
     <xsd:import namespace="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
     <xsd:element name="properties">
@@ -30385,7 +30405,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -30439,8 +30459,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -30529,60 +30549,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7db9c71a-8f0f-4486-8c92-6242e053eab7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF42AF13-53A3-4C54-A4DF-E677EE6864D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
-    <ds:schemaRef ds:uri="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8626BCF-9132-4E71-966D-1BCE86236165}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3E0B96-A0A3-4A65-B46A-570477E1049A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3E0B96-A0A3-4A65-B46A-570477E1049A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8626BCF-9132-4E71-966D-1BCE86236165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
-    <ds:schemaRef ds:uri="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A935392-04B8-4EAA-BB32-2489233A8BC2}"/>
 </file>